--- a/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="70">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -235,28 +235,10 @@
     <t xml:space="preserve">Principal </t>
   </si>
   <si>
-    <t xml:space="preserve"> Engloba las acciones del usuario usara  en la plataforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalizar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finaliza la solicitud se podrás ver visualizada en el apartado de  "Consulta de Solicitudes" </t>
-  </si>
-  <si>
-    <t>Ingresar sitio wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar correctamente </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingresar las Credenciales </t>
   </si>
   <si>
     <t xml:space="preserve">Ingresar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar a la aplicacción </t>
   </si>
   <si>
     <t>En Curso</t>
@@ -271,64 +253,7 @@
     <t>Tarea por hacer</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuración </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direcciona al apartado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualización Pagina Principal "Usuarios" </t>
-  </si>
-  <si>
     <t xml:space="preserve">Buscar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busqueda de información general </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edita información del Usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borra registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelar Solicitud de Usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear Usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmar Añadir Usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrar Solicitudes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comentarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualización del comentario proveniemte de al crear uan solicitud, muetra cantidad de comentarios. </t>
-  </si>
-  <si>
-    <t>Siguiente Solicitud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anterior Solicitud </t>
-  </si>
-  <si>
-    <t>Direcciona hacia la derecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direcciona hacia la izquierda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direcciona al apartado "Ver Solicitudes" </t>
-  </si>
-  <si>
-    <t>https://srpu.atlassian.net/browse/SGCM-98</t>
   </si>
   <si>
     <t xml:space="preserve">Matriz de Pruebas Plataforma de Acceso Único y Aplicaciones </t>
@@ -347,9 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve">Inglesar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar al apartado </t>
   </si>
   <si>
     <t xml:space="preserve">Secretarias </t>
@@ -383,6 +305,24 @@
   </si>
   <si>
     <t xml:space="preserve">Borrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad Responsable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfiles </t>
+  </si>
+  <si>
+    <t>Ingresar al citio web</t>
+  </si>
+  <si>
+    <t>Ingresar sitio web</t>
   </si>
 </sst>
 </file>
@@ -5271,13 +5211,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1675957</xdr:colOff>
+          <xdr:colOff>1666432</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>4430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>94364</xdr:colOff>
+          <xdr:colOff>84839</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>204455</xdr:rowOff>
         </xdr:to>
@@ -5318,13 +5258,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1675957</xdr:colOff>
+          <xdr:colOff>1666432</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>4430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>94364</xdr:colOff>
+          <xdr:colOff>84839</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>204455</xdr:rowOff>
         </xdr:to>
@@ -11918,9 +11858,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11943,7 +11883,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -11977,7 +11917,7 @@
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12018,7 +11958,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="35" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -12080,14 +12020,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7"/>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="J7" s="21"/>
       <c r="M7" s="22"/>
@@ -12098,14 +12038,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="1"/>
@@ -12115,14 +12052,11 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="1"/>
@@ -12135,13 +12069,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1"/>
@@ -12151,35 +12082,29 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="1"/>
@@ -12189,34 +12114,28 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="1"/>
@@ -12226,16 +12145,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="1"/>
@@ -12245,18 +12161,15 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="1"/>
     </row>
@@ -12265,16 +12178,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="1"/>
@@ -12284,16 +12194,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1"/>
@@ -12303,16 +12210,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
@@ -12323,16 +12227,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="7"/>
       <c r="M20" s="7"/>
@@ -12343,75 +12244,63 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="M22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="1">
-        <v>45076</v>
-      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="1">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -12420,230 +12309,582 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="N25" s="1">
-        <v>45076</v>
-      </c>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J26" s="7"/>
-      <c r="N26" s="1">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="1">
-        <v>45078</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C30" s="3"/>
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="3"/>
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C33" s="3"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-      <c r="F37"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H37"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="F38"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H38"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-      <c r="F39"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H39"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-      <c r="F40"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H40"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="F41"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H41"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="F42"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H42"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-      <c r="F43"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H43"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="F44"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="H44"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45"/>
-      <c r="F45"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H45"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46"/>
-      <c r="F46"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H46"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47"/>
-      <c r="F47"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H47"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48"/>
-      <c r="F48"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H48"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49"/>
-      <c r="F49"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50"/>
-      <c r="F50"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51"/>
-      <c r="F51"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52"/>
-      <c r="F52"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.3">
@@ -13572,52 +13813,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId4" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3088" r:id="rId4" name="Control 16">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1676400</xdr:colOff>
+                <xdr:colOff>1666875</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId4" name="Control 18"/>
+        <control shapeId="3088" r:id="rId4" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId6" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3090" r:id="rId6" name="Control 18">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1676400</xdr:colOff>
+                <xdr:colOff>1666875</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId6" name="Control 16"/>
+        <control shapeId="3090" r:id="rId6" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13793,7 +14034,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -13804,7 +14045,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -13815,7 +14056,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -13823,7 +14064,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="76">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -271,9 +271,6 @@
     <t xml:space="preserve">Catálogos </t>
   </si>
   <si>
-    <t xml:space="preserve">Inglesar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Secretarias </t>
   </si>
   <si>
@@ -319,10 +316,31 @@
     <t xml:space="preserve">Perfiles </t>
   </si>
   <si>
-    <t>Ingresar al citio web</t>
+    <t>Ingresar sitio web</t>
   </si>
   <si>
-    <t>Ingresar sitio web</t>
+    <t>Ingresar plataforma PAUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direcciona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al Menú Catálogos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al Menú Secretarias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar por columnas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda Columnas Operaciones y Valor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar tamaño </t>
   </si>
 </sst>
 </file>
@@ -11858,9 +11876,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12020,14 +12038,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7"/>
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="J7" s="21"/>
       <c r="M7" s="22"/>
@@ -12044,6 +12062,9 @@
       <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M8" s="22"/>
       <c r="N8" s="1"/>
     </row>
@@ -12058,6 +12079,9 @@
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="1"/>
     </row>
@@ -12072,7 +12096,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1"/>
@@ -12085,10 +12112,13 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
+      <c r="I11" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
@@ -12101,10 +12131,13 @@
         <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="1"/>
@@ -12117,14 +12150,17 @@
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -12132,10 +12168,13 @@
         <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="1"/>
@@ -12148,10 +12187,13 @@
         <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="1"/>
@@ -12164,10 +12206,10 @@
         <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="20"/>
       <c r="M16" s="7"/>
@@ -12181,7 +12223,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>46</v>
@@ -12197,10 +12239,10 @@
         <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1"/>
@@ -12213,10 +12255,10 @@
         <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
@@ -12230,10 +12272,10 @@
         <v>51</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="7"/>
       <c r="M20" s="7"/>
@@ -12247,10 +12289,10 @@
         <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="7"/>
       <c r="M21" s="7"/>
@@ -12264,10 +12306,10 @@
         <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="7"/>
       <c r="M22" s="7"/>
@@ -12281,10 +12323,10 @@
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="1"/>
@@ -12297,10 +12339,10 @@
         <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -12312,10 +12354,10 @@
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="7"/>
       <c r="N25" s="1"/>
@@ -12328,10 +12370,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="7"/>
       <c r="N26" s="1"/>
@@ -12344,7 +12386,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
@@ -12359,10 +12401,10 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="1"/>
@@ -12375,10 +12417,10 @@
         <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="1"/>
@@ -12391,10 +12433,10 @@
         <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="1"/>
@@ -12407,10 +12449,10 @@
         <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="1"/>
@@ -12423,10 +12465,10 @@
         <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="1"/>
@@ -12439,10 +12481,10 @@
         <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -12454,10 +12496,10 @@
         <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="1"/>
     </row>
@@ -12469,10 +12511,10 @@
         <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="1"/>
     </row>
@@ -12484,10 +12526,10 @@
         <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N36" s="1"/>
     </row>
@@ -12499,7 +12541,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>46</v>
@@ -12515,10 +12557,10 @@
         <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38"/>
       <c r="N38" s="1"/>
@@ -12531,10 +12573,10 @@
         <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39"/>
       <c r="N39" s="1"/>
@@ -12547,10 +12589,10 @@
         <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40"/>
       <c r="N40" s="1"/>
@@ -12563,10 +12605,10 @@
         <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41"/>
       <c r="N41" s="1"/>
@@ -12579,10 +12621,10 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42"/>
       <c r="N42" s="1"/>
@@ -12595,10 +12637,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43"/>
       <c r="N43" s="1"/>
@@ -12611,10 +12653,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H44"/>
       <c r="N44" s="1"/>
@@ -12627,10 +12669,10 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45"/>
       <c r="N45" s="1"/>
@@ -12643,10 +12685,10 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46"/>
       <c r="N46" s="1"/>
@@ -12659,7 +12701,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>46</v>
@@ -12675,10 +12717,10 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48"/>
       <c r="N48" s="1"/>
@@ -12691,10 +12733,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49"/>
     </row>
@@ -12706,10 +12748,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50"/>
     </row>
@@ -12721,10 +12763,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51"/>
     </row>
@@ -12736,10 +12778,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H52"/>
     </row>
@@ -12751,10 +12793,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53"/>
     </row>
@@ -12766,10 +12808,10 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H54"/>
     </row>
@@ -12781,10 +12823,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N55" s="1"/>
     </row>
@@ -12796,10 +12838,10 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N56" s="1"/>
     </row>
@@ -12811,7 +12853,7 @@
         <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>46</v>
@@ -12826,10 +12868,10 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N58" s="1"/>
     </row>
@@ -12841,10 +12883,10 @@
         <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N59" s="1"/>
     </row>
@@ -12856,10 +12898,10 @@
         <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N60" s="1"/>
     </row>
@@ -12871,10 +12913,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N61" s="1"/>
     </row>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="129">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -383,6 +383,164 @@
 ¡ El registro se elimino!
 ó 
 ¡Registro eliminado correctamente!  </t>
+  </si>
+  <si>
+    <t>Botón Borrar / Ortografía Redacción mensaje de confirmación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dejar espacios entre cada palabra, Nombre Corto, Descripción  y Control Interno </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografía Mensaje de alerta en ingles </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-102        https://paua-sfytgenl.atlassian.net/browse/KPAUA-103</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-106</t>
+  </si>
+  <si>
+    <t>Color en los iconos de acciones, Se sugiere agregar signos de exclamación y cambiar modificar por editar
+¡Registro Editado!
+¡Registro editado Correctamente!</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-108</t>
+  </si>
+  <si>
+    <t>Departamentos / Agregar
+Descripcion / Descripción
+Tooltips en Ingles
+clear / borrar
+open / abrir
+Se queda guardado el registro previamente registrado al
+momento de querer registrar un nuevo registro</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda correcta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra Número de Paginación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra Paginas </t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-116</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-117</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acento / Mensaje de confirmación </t>
+  </si>
+  <si>
+    <t>Se sugiere agregar signos de exclamación y cambiar modificar por editar
+¡Registro Editado!
+¡Registro editado Correctamente!
+Ajustar color en los botone</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-119</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografía  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Dependencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografia, Se queda guardado el registro anterior si quieres hacer uno nuevo </t>
+  </si>
+  <si>
+    <t>Se sugiere agregar signos de exclamación y cambiar modificar por editar
+¡Registro Editado!
+¡Registro editado Correctamente!
+Ajustar color en los botones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar </t>
+  </si>
+  <si>
+    <t>Se sugiere agregar signo de interrogación en la pregunta /
+ ¿Deseas eliminar el registro?  Se sugiere agregar signos de exclamación 
+¡ El registro se elimino!
+ó 
+¡Registro eliminado correctamente!</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-122</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-123</t>
+  </si>
+  <si>
+    <t>Acentos Direccion / Dirección 
+Telefono / Teléfono 
+Los campos Tipos de Dependencia y Pertenece a la Secretaria no contienen opciones para seleccionar 
+Tootips en ingles  close/ cerrar, no options / sin opciones, clear / borrar</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-124</t>
+  </si>
+  <si>
+    <t>Acento en la palabra 
+Desctipcion / Descripción 
+Mensaje de confirmación  ¡El registro se creo correctamente!
+¡El Registro se ha creado!
+Cuando se crea un nuevo registro aparece el registro anterior previamente registrado</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-125</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-127</t>
+  </si>
+  <si>
+    <t>30-26-23</t>
+  </si>
+  <si>
+    <t>Botón eliminar agregar signo de interrogación
+al iniciar la pregunta
+Manda error al querer eliminar el registro
+Ajustar color en los botones</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-128</t>
+  </si>
+  <si>
+    <t>Ajustar color en el botón eliminar
+Agregar signos de exclamación en el mensaje de confirmación.
+¡El registro se modifico correctamente!
+¡El Registro se ha modificado!</t>
+  </si>
+  <si>
+    <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-129</t>
+  </si>
+  <si>
+    <t>Ajustar color en el botón acciones 
+Agregar signo de interrogación en la pregunta ¿Deseas eliminar este elemento? 
+Redacción en el mensaje de confirmación 
+¡El registro se elimino!
+¡Registro eliminado!</t>
+  </si>
+  <si>
+    <t>irisc</t>
   </si>
 </sst>
 </file>
@@ -684,7 +842,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -773,6 +931,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5080,13 +5244,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1647382</xdr:colOff>
+          <xdr:colOff>1618807</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>4430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>65789</xdr:colOff>
+          <xdr:colOff>37214</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>204455</xdr:rowOff>
         </xdr:to>
@@ -5127,13 +5291,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1647382</xdr:colOff>
+          <xdr:colOff>1618807</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>4430</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>65789</xdr:colOff>
+          <xdr:colOff>37214</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>204455</xdr:rowOff>
         </xdr:to>
@@ -11072,6 +11236,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -11276,7 +11549,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -11326,115 +11599,6 @@
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11729,7 +11893,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11892,6 +12056,9 @@
         <v>65</v>
       </c>
       <c r="C7" s="7"/>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
@@ -11910,6 +12077,9 @@
         <v>38</v>
       </c>
       <c r="C8" s="3"/>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
@@ -11927,6 +12097,9 @@
         <v>48</v>
       </c>
       <c r="C9" s="3"/>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
@@ -11946,6 +12119,9 @@
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>67</v>
       </c>
@@ -11965,6 +12141,9 @@
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
@@ -11984,6 +12163,9 @@
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
@@ -12016,6 +12198,9 @@
       <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
@@ -12037,6 +12222,9 @@
       <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>54</v>
       </c>
@@ -12059,6 +12247,9 @@
       <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>55</v>
       </c>
@@ -12081,6 +12272,9 @@
       <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>56</v>
       </c>
@@ -12116,6 +12310,9 @@
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
@@ -12138,6 +12335,9 @@
       <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>75</v>
       </c>
@@ -12160,6 +12360,9 @@
       <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>58</v>
       </c>
@@ -12183,6 +12386,9 @@
       <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>59</v>
       </c>
@@ -12219,6 +12425,9 @@
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
@@ -12245,7 +12454,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -12255,17 +12464,35 @@
       <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -12275,14 +12502,33 @@
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="1"/>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45100</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -12294,6 +12540,9 @@
       <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>54</v>
       </c>
@@ -12312,6 +12561,9 @@
       <c r="C25" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
@@ -12331,14 +12583,33 @@
       <c r="C26" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="I26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="N26" s="1"/>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="1">
+        <v>45100</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -12350,8 +12621,14 @@
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>76</v>
@@ -12368,8 +12645,14 @@
       <c r="C28" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>77</v>
@@ -12387,16 +12670,22 @@
       <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="3" t="s">
         <v>78</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -12406,16 +12695,35 @@
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -12425,16 +12733,35 @@
       <c r="C31" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -12444,14 +12771,30 @@
       <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="1"/>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="1">
+        <v>45106</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -12463,11 +12806,20 @@
       <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>43</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -12481,8 +12833,14 @@
       <c r="C34" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
       <c r="F34" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>72</v>
@@ -12499,15 +12857,21 @@
       <c r="C35" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
       <c r="I35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -12517,13 +12881,30 @@
       <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N36" s="1"/>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" t="s">
+        <v>93</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45100</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -12535,10 +12916,18 @@
       <c r="C37" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H37"/>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>98</v>
+      </c>
       <c r="I37" s="19" t="s">
         <v>76</v>
       </c>
@@ -12554,10 +12943,18 @@
       <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H38"/>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
       <c r="I38" s="3" t="s">
         <v>77</v>
       </c>
@@ -12573,16 +12970,24 @@
       <c r="C39" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H39"/>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
       <c r="I39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -12592,16 +12997,35 @@
       <c r="C40" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H40"/>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
@@ -12611,14 +13035,33 @@
       <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
       <c r="F41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H41"/>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45106</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -12630,14 +13073,33 @@
       <c r="C42" t="s">
         <v>63</v>
       </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H42"/>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
       <c r="I42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" t="s">
+        <v>103</v>
+      </c>
+      <c r="N42" s="1">
+        <v>45106</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -12649,8 +13111,14 @@
       <c r="C43" t="s">
         <v>63</v>
       </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
       </c>
       <c r="H43"/>
       <c r="I43" s="3" t="s">
@@ -12668,8 +13136,14 @@
       <c r="C44" t="s">
         <v>63</v>
       </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
       </c>
       <c r="H44"/>
       <c r="I44" s="3" t="s">
@@ -12687,8 +13161,14 @@
       <c r="C45" t="s">
         <v>63</v>
       </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
       </c>
       <c r="H45"/>
       <c r="I45" s="3" t="s">
@@ -12706,14 +13186,33 @@
       <c r="C46" t="s">
         <v>63</v>
       </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H46"/>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="I46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" s="1">
+        <v>45100</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -12725,10 +13224,18 @@
       <c r="C47" t="s">
         <v>63</v>
       </c>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H47"/>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
       <c r="I47" s="19" t="s">
         <v>76</v>
       </c>
@@ -12744,6 +13251,9 @@
       <c r="C48" t="s">
         <v>63</v>
       </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>57</v>
       </c>
@@ -12763,6 +13273,9 @@
       <c r="C49" t="s">
         <v>63</v>
       </c>
+      <c r="E49" t="s">
+        <v>128</v>
+      </c>
       <c r="F49" s="3" t="s">
         <v>58</v>
       </c>
@@ -12771,7 +13284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
@@ -12781,12 +13294,32 @@
       <c r="C50" t="s">
         <v>63</v>
       </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
       <c r="F50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H50"/>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="I50" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" t="s">
+        <v>43</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="1">
+        <v>45106</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -12799,15 +13332,35 @@
       <c r="C51" t="s">
         <v>63</v>
       </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H51"/>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
       <c r="I51" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" t="s">
+        <v>107</v>
+      </c>
+      <c r="N51" s="1">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -12817,10 +13370,18 @@
       <c r="C52" t="s">
         <v>64</v>
       </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
       <c r="F52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H52"/>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="I52" s="3" t="s">
         <v>70</v>
       </c>
@@ -12835,6 +13396,9 @@
       <c r="C53" t="s">
         <v>64</v>
       </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>53</v>
       </c>
@@ -12853,8 +13417,14 @@
       <c r="C54" t="s">
         <v>64</v>
       </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
       <c r="F54" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
       </c>
       <c r="H54"/>
       <c r="I54" s="3" t="s">
@@ -12871,8 +13441,14 @@
       <c r="C55" t="s">
         <v>64</v>
       </c>
+      <c r="E55" t="s">
+        <v>128</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>73</v>
@@ -12889,13 +13465,33 @@
       <c r="C56" t="s">
         <v>64</v>
       </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="I56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="K56" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" t="s">
+        <v>93</v>
+      </c>
+      <c r="N56" s="1">
+        <v>45100</v>
+      </c>
     </row>
     <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -12907,6 +13503,9 @@
       <c r="C57" t="s">
         <v>64</v>
       </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>44</v>
       </c>
@@ -12925,8 +13524,14 @@
       <c r="C58" t="s">
         <v>64</v>
       </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
       <c r="F58" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>77</v>
@@ -12943,15 +13548,21 @@
       <c r="C59" t="s">
         <v>64</v>
       </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
       <c r="I59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -12961,15 +13572,35 @@
       <c r="C60" t="s">
         <v>64</v>
       </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" t="s">
+        <v>115</v>
+      </c>
+      <c r="N60" s="1">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -12979,117 +13610,586 @@
       <c r="C61" t="s">
         <v>64</v>
       </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
       <c r="F61" s="3" t="s">
-        <v>60</v>
+        <v>113</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N62" s="1"/>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" t="s">
+        <v>116</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N62" s="1">
+        <v>45106</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" t="s">
+        <v>93</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" t="s">
+        <v>35</v>
+      </c>
+      <c r="L70" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" t="s">
+        <v>118</v>
+      </c>
+      <c r="N70" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" t="s">
+        <v>43</v>
+      </c>
+      <c r="M71" t="s">
+        <v>121</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="198" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K72" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" t="s">
+        <v>43</v>
+      </c>
+      <c r="M72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N72" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76" t="s">
+        <v>43</v>
+      </c>
+      <c r="M76" t="s">
+        <v>93</v>
+      </c>
+      <c r="N76" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K80" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" t="s">
+        <v>43</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N80" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s">
+        <v>35</v>
+      </c>
+      <c r="L81" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N81" s="1">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H82"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="37"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="37"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="37"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="37"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="37"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H88" s="37"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="14:14" x14ac:dyDescent="0.3">
@@ -13917,65 +15017,72 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M16" r:id="rId1"/>
+    <hyperlink ref="M31" r:id="rId2"/>
+    <hyperlink ref="M32" r:id="rId3"/>
+    <hyperlink ref="M50" r:id="rId4"/>
+    <hyperlink ref="M26" r:id="rId5"/>
+    <hyperlink ref="M62" r:id="rId6"/>
+    <hyperlink ref="M80" r:id="rId7"/>
+    <hyperlink ref="M81" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId5" name="Control 16">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId6">
+        <control shapeId="3090" r:id="rId12" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1647825</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:colOff>1619250</xdr:colOff>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId5" name="Control 16"/>
+        <control shapeId="3090" r:id="rId12" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId7" name="Control 18">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId6">
+        <control shapeId="3088" r:id="rId14" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1647825</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:colOff>1619250</xdr:colOff>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId7" name="Control 18"/>
+        <control shapeId="3088" r:id="rId14" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -13984,25 +15091,25 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K55:K360 K34:K48</xm:sqref>
+          <xm:sqref>K82:K360</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G53:G360 G7:G36</xm:sqref>
+          <xm:sqref>G33:G35 G7:G31 G53:G61 G63:G71 G73:G360</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L380 M24:M27 N24</xm:sqref>
+          <xm:sqref>N24 M24:M25 M27 L7:L31 L33:L35 L37:L380</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$14</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K33</xm:sqref>
+          <xm:sqref>K8:K31 K33:K81</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
@@ -16,7 +16,7 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="129">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>Pendiente</t>
-  </si>
-  <si>
-    <t>oswaldo.cardenas</t>
   </si>
   <si>
     <t>Etiquetas de fila</t>
@@ -542,6 +539,9 @@
   <si>
     <t>irisc</t>
   </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
 </sst>
 </file>
 
@@ -648,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -835,6 +835,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -842,7 +866,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -881,6 +905,20 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,12 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1348,8 +1380,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="0.22605038618625903"/>
-              <c:y val="6.9901315789473562E-2"/>
+              <c:x val="0.21505085692971504"/>
+              <c:y val="3.8377192982456038E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -1390,8 +1422,8 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
-                  <c:w val="0.11558898459298798"/>
-                  <c:h val="0.19207785087719295"/>
+                  <c:w val="9.3589926079899979E-2"/>
+                  <c:h val="0.1290296052631579"/>
                 </c:manualLayout>
               </c15:layout>
             </c:ext>
@@ -1745,6 +1777,174 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.24805566355036629"/>
+                  <c:y val="-0.108733401540268"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.18773968997213356"/>
+                      <c:h val="0.19387688277668627"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21505085692971504"/>
+                  <c:y val="3.8377192982456038E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.3589926079899979E-2"/>
+                      <c:h val="0.1290296052631579"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-02EC-495A-8B8F-3EA7E5F8CD95}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19976545755994987"/>
+                  <c:y val="1.0964912280701761E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.11081725908851954"/>
+                      <c:h val="0.26060855263157895"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-02EC-495A-8B8F-3EA7E5F8CD95}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1800,21 +2000,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4</c:f>
+              <c:f>GRAFICOS!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pendiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4</c:f>
+              <c:f>GRAFICOS!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2195,21 +2410,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25</c:f>
+              <c:f>GRAFICOS!$A$25:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Tarea por hacer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25</c:f>
+              <c:f>GRAFICOS!$B$25:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3112,7 +3330,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3152,18 +3370,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$49</c:f>
+              <c:f>GRAFICOS!$A$49:$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Pedro Pardo </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$49</c:f>
+              <c:f>GRAFICOS!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3173,6 +3391,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A312-4866-9CD0-0EF01A2514E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GRAFICOS!$C$47:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarea por hacer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GRAFICOS!$A$49:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedro Pardo </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GRAFICOS!$C$49:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA39-452D-8FD9-C7AEDD4A8169}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5244,15 +5538,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1618807</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>4430</xdr:rowOff>
+          <xdr:colOff>1599757</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>187842</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>37214</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>204455</xdr:rowOff>
+          <xdr:colOff>18164</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>177431</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5291,15 +5585,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1618807</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>4430</xdr:rowOff>
+          <xdr:colOff>1599757</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>187842</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>37214</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>204455</xdr:rowOff>
+          <xdr:colOff>18164</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>177431</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5487,7 +5781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45098.49166226852" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="354">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45111.718021296299" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="354">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N1048576" sheet="PAUA"/>
   </cacheSource>
@@ -5511,15 +5805,15 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="4">
         <m/>
-        <s v="Pendiente" u="1"/>
-        <s v="Realizado" u="1"/>
-        <s v="Error" u="1"/>
+        <s v="Error"/>
+        <s v="Realizado"/>
+        <s v="Pendiente"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5528,17 +5822,18 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="5">
         <m/>
-        <s v="Pedro Pardo " u="1"/>
+        <s v="Pedro Pardo "/>
         <s v="Juanita Reyes" u="1"/>
         <s v="Abelino Olguín" u="1"/>
         <s v="Adolfo García" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="11">
         <m/>
+        <s v="Tarea por hacer"/>
         <s v="Finalizada " u="1"/>
         <s v="Abierto" u="1"/>
         <s v="Resuelta" u="1"/>
@@ -5547,15 +5842,14 @@
         <s v="Aceptada" u="1"/>
         <s v="Pendiente de  validacion" u="1"/>
         <s v="Asignada" u="1"/>
-        <s v="Tarea por hacer" u="1"/>
         <s v="Cerrada " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2023-06-22T00:00:00" maxDate="2023-07-01T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5573,7 +5867,7 @@
     <s v="Ingresar sitio web"/>
     <m/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Ingresar "/>
     <x v="0"/>
     <m/>
@@ -5589,7 +5883,7 @@
     <s v="Ingresar las Credenciales "/>
     <m/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Ingresar "/>
     <x v="0"/>
     <m/>
@@ -5605,7 +5899,7 @@
     <s v="Aplicación PAUA"/>
     <m/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Ingresar "/>
     <x v="0"/>
     <m/>
@@ -5621,7 +5915,7 @@
     <s v="Principal "/>
     <s v="Catálogos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Direcciona "/>
     <x v="0"/>
     <m/>
@@ -5637,7 +5931,7 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Acceso "/>
     <x v="0"/>
     <m/>
@@ -5653,25 +5947,25 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Agregar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="KPAUA-93 Ajustar diseño de botones   Al agregar un elemento y quieres agregar otro elemento _x000a_se queda guardada la información del registro anterior previamente agregado."/>
     <s v="Agregar "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="KPAUA-92 KPAUA-93"/>
+    <d v="2023-06-22T00:00:00"/>
   </r>
   <r>
     <n v="7"/>
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Columnas "/>
-    <x v="0"/>
+    <x v="2"/>
     <m/>
     <s v="Filtrar por columnas "/>
     <m/>
@@ -5685,9 +5979,9 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filtros "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Busqueda Columnas Operaciones y Valor "/>
     <m/>
@@ -5701,9 +5995,9 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Densidad "/>
-    <x v="0"/>
+    <x v="2"/>
     <m/>
     <s v="Ajustar tamaño de la pantalla "/>
     <m/>
@@ -5717,25 +6011,25 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Exportar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
     <s v="Descarga e Imprime documentos CSV "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-97"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="11"/>
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Buscar "/>
-    <x v="0"/>
+    <x v="2"/>
     <m/>
     <s v="Mostrar información que contiene la palabra introducida en la caja de búsqueda"/>
     <m/>
@@ -5749,9 +6043,9 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filas por Pagina "/>
-    <x v="0"/>
+    <x v="2"/>
     <m/>
     <s v="Se realiza muestran correctamente los número de registros consultados"/>
     <m/>
@@ -5765,9 +6059,9 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Número de Páginas"/>
-    <x v="0"/>
+    <x v="2"/>
     <m/>
     <s v="Navegación correcta"/>
     <m/>
@@ -5781,71 +6075,71 @@
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Editar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Se sugiere agregar signos de exclamación y cambiar modificar por editar_x000a_¡Registro Editado!_x000a_¡Registro editado Correctamente!"/>
     <s v="Editar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-100"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="15"/>
     <s v="Catálogos "/>
     <s v="Secretarias "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Borrar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Se sugiere agregar signo de interrogación en la pregunta / ¿Deseas eliminar el registro? Se sugiere agregar signos de exclamación _x000a_¡ El registro se elimino!_x000a_ó _x000a_¡Registro eliminado correctamente!  "/>
     <s v="Borrar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-100"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="16"/>
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Agregar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Ortografía Mensaje de alerta en ingles "/>
     <s v="Agregar "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-102        https://paua-sfytgenl.atlassian.net/browse/KPAUA-103"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="17"/>
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Columnas "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Dejar espacios entre cada palabra, Nombre Corto, Descripción  y Control Interno "/>
     <s v="Filtrar por columnas "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-101"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="18"/>
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filtros "/>
     <x v="0"/>
     <m/>
@@ -5861,7 +6155,7 @@
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Densidad "/>
     <x v="0"/>
     <m/>
@@ -5877,25 +6171,25 @@
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Exportar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
     <s v="Descarga e Imprime documentos CSV "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-106"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="21"/>
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Buscar "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Mostrar información que contiene la palabra introducida en la caja de búsqueda"/>
     <m/>
@@ -5909,9 +6203,9 @@
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filas por Paginación "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Se realiza muestran correctamente los número de registros consultados"/>
     <m/>
@@ -5925,9 +6219,9 @@
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Número de Páginas"/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Navegación correcta"/>
     <m/>
@@ -5941,62 +6235,62 @@
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Editar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Color en los iconos de acciones, Se sugiere agregar signos de exclamación y cambiar modificar por editar_x000a_¡Registro Editado!_x000a_¡Registro editado Correctamente!"/>
     <s v="Editar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-108"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="25"/>
     <s v="Catálogos "/>
     <s v="Unidad Responsable "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Borrar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Borrar / Ortografía Redacción mensaje de confirmación"/>
     <s v="Borrar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-100"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="26"/>
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Agregar"/>
-    <x v="0"/>
-    <m/>
-    <s v="Agregar "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <s v="Departamentos / Agregar_x000a__x000a_Descripcion / Descripción_x000a__x000a_Tooltips en Ingles_x000a__x000a_clear / borrar_x000a__x000a_open / abrir_x000a__x000a__x000a__x000a_Se queda guardado el registro previamente registrado al_x000a__x000a_momento de querer registrar un nuevo registro"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-115"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="27"/>
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Columnas "/>
     <x v="0"/>
     <m/>
     <s v="Filtrar por columnas "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <m/>
     <m/>
   </r>
@@ -6005,9 +6299,9 @@
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filtros "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Busqueda Columnas Operaciones y Valor "/>
     <m/>
@@ -6021,9 +6315,9 @@
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Densidad "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Ajustar tamaño de la pantalla "/>
     <m/>
@@ -6037,26 +6331,26 @@
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Exportar"/>
-    <x v="0"/>
-    <m/>
-    <s v="Descarga e Imprime documentos CSV "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-106"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="31"/>
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Buscar "/>
-    <x v="0"/>
-    <m/>
+    <x v="2"/>
+    <s v="Busqueda correcta "/>
     <s v="Mostrar información que contiene la palabra introducida en la caja de búsqueda"/>
     <m/>
     <x v="0"/>
@@ -6069,10 +6363,10 @@
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filas por Paginación "/>
-    <x v="0"/>
-    <m/>
+    <x v="2"/>
+    <s v="Muestra Número de Paginación "/>
     <s v="Se realiza muestran correctamente los número de registros consultados"/>
     <m/>
     <x v="0"/>
@@ -6085,10 +6379,10 @@
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Número de Páginas"/>
-    <x v="0"/>
-    <m/>
+    <x v="2"/>
+    <s v="Muestra Paginas "/>
     <s v="Navegación correcta"/>
     <m/>
     <x v="0"/>
@@ -6101,57 +6395,57 @@
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Editar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Color en los iconos de acciones, Se sugiere agregar signos de exclamación y cambiar modificar por editar_x000a_¡Registro Editado!_x000a_¡Registro editado Correctamente!"/>
     <s v="Editar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-116"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="35"/>
     <s v="Catálogos "/>
     <s v="Departamentos "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Borrar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Borrar / Ortografía Redacción mensaje de confirmación"/>
     <s v="Borrar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-117"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="36"/>
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Agregar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Acento / Mensaje de confirmación "/>
     <s v="Agregar "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-118"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="37"/>
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Columnas "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Filtrar por columnas "/>
     <m/>
@@ -6165,9 +6459,9 @@
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filtros "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Busqueda Columnas Operaciones y Valor "/>
     <m/>
@@ -6181,9 +6475,9 @@
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Densidad "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Ajustar tamaño de la pantalla "/>
     <m/>
@@ -6197,26 +6491,26 @@
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Exportar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
     <s v="Descarga e Imprime documentos CSV "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-106"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="41"/>
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Buscar "/>
-    <x v="0"/>
-    <m/>
+    <x v="2"/>
+    <s v="Busqueda correcta "/>
     <s v="Mostrar información que contiene la palabra introducida en la caja de búsqueda"/>
     <m/>
     <x v="0"/>
@@ -6229,7 +6523,7 @@
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filas por Paginación "/>
     <x v="0"/>
     <m/>
@@ -6245,7 +6539,7 @@
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Número de Páginas"/>
     <x v="0"/>
     <m/>
@@ -6261,42 +6555,42 @@
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Editar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Se sugiere agregar signos de exclamación y cambiar modificar por editar_x000a__x000a_¡Registro Editado!_x000a__x000a_¡Registro editado Correctamente!_x000a__x000a_Ajustar color en los botone"/>
     <s v="Editar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-119"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="45"/>
     <s v="Catálogos "/>
     <s v="Roles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Borrar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Ortografía  "/>
     <s v="Borrar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-120"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="46"/>
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Agregar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Ortografia, Se queda guardado el registro anterior si quieres hacer uno nuevo "/>
     <s v="Agregar "/>
     <m/>
     <x v="0"/>
@@ -6309,7 +6603,7 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Columnas "/>
     <x v="0"/>
     <m/>
@@ -6325,9 +6619,9 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filtros "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Busqueda Columnas Operaciones y Valor "/>
     <m/>
@@ -6341,9 +6635,9 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Densidad "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Ajustar tamaño de la pantalla "/>
     <m/>
@@ -6357,23 +6651,23 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Exportar"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
     <s v="Descarga e Imprime documentos CSV "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-106"/>
+    <d v="2023-06-23T00:00:00"/>
   </r>
   <r>
     <n v="51"/>
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Buscar "/>
     <x v="0"/>
     <m/>
@@ -6389,9 +6683,9 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Filas por Paginación "/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Se realiza muestran correctamente los número de registros consultados"/>
     <m/>
@@ -6405,9 +6699,9 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Número de Páginas"/>
-    <x v="0"/>
+    <x v="3"/>
     <m/>
     <s v="Navegación correcta"/>
     <m/>
@@ -6421,352 +6715,352 @@
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
     <s v="Editar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Se sugiere agregar signos de exclamación y cambiar modificar por editar_x000a__x000a_¡Registro Editado!_x000a__x000a_¡Registro editado Correctamente!_x000a__x000a_Ajustar color en los botones"/>
     <s v="Editar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-122"/>
+    <d v="2023-06-29T00:00:00"/>
   </r>
   <r>
     <n v="55"/>
     <s v="Catálogos "/>
     <s v="Perfiles "/>
     <m/>
-    <m/>
+    <s v="irisc"/>
+    <s v="Eliminar "/>
+    <x v="1"/>
+    <s v="Se sugiere agregar signo de interrogación en la pregunta /_x000a_ ¿Deseas eliminar el registro?  Se sugiere agregar signos de exclamación _x000a_¡ El registro se elimino!_x000a_ó _x000a_¡Registro eliminado correctamente!"/>
+    <s v="Borrar"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-123"/>
+    <d v="2023-06-29T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Agregar"/>
+    <x v="1"/>
+    <s v="Acentos Direccion / Dirección _x000a_Telefono / Teléfono _x000a_Los campos Tipos de Dependencia y Pertenece a la Secretaria no contienen opciones para seleccionar _x000a_Tootips en ingles  close/ cerrar, no options / sin opciones, clear / borrar"/>
+    <s v="Agregar "/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-124"/>
+    <d v="2023-06-29T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Columnas "/>
+    <x v="0"/>
+    <m/>
+    <s v="Filtrar por columnas "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Filtros "/>
+    <x v="0"/>
+    <m/>
+    <s v="Busqueda Columnas Operaciones y Valor "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Densidad "/>
+    <x v="0"/>
+    <m/>
+    <s v="Ajustar tamaño de la pantalla "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Exportar"/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
+    <s v="Descarga e Imprime documentos CSV "/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-106"/>
+    <d v="2023-06-23T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <m/>
+    <s v="Mostrar información que contiene la palabra introducida en la caja de búsqueda"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Filas por Paginación "/>
+    <x v="0"/>
+    <m/>
+    <s v="Se realiza muestran correctamente los número de registros consultados"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Número de Páginas"/>
+    <x v="0"/>
+    <m/>
+    <s v="Navegación correcta"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Editar "/>
+    <x v="1"/>
+    <s v="Se sugiere agregar signos de exclamación y cambiar modificar por editar_x000a__x000a_¡Registro Editado!_x000a__x000a_¡Registro editado Correctamente!_x000a__x000a_Ajustar color en los botones"/>
+    <s v="Editar"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-124"/>
+    <d v="2023-06-30T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Dependencias "/>
+    <m/>
+    <s v="irisc"/>
     <s v="Borrar "/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="Botón eliminar agregar signo de interrogación_x000a__x000a_al iniciar la pregunta_x000a__x000a_Manda error al querer eliminar el registro_x000a__x000a_Ajustar color en los botones"/>
     <s v="Borrar"/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-127"/>
+    <s v="30-26-23"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Agregar"/>
+    <x v="1"/>
+    <s v="Acento en la palabra _x000a__x000a_Desctipcion / Descripción _x000a__x000a_Mensaje de confirmación  ¡El registro se creo correctamente!_x000a__x000a_¡El Registro se ha creado!_x000a__x000a_Cuando se crea un nuevo registro aparece el registro anterior previamente registrado"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-125"/>
+    <d v="2023-06-30T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Columnas "/>
+    <x v="0"/>
+    <m/>
+    <s v="Filtrar por columnas "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Filtros "/>
+    <x v="0"/>
+    <m/>
+    <s v="Busqueda Columnas Operaciones y Valor "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Densidad "/>
+    <x v="0"/>
+    <m/>
+    <s v="Ajustar tamaño de la pantalla "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Exportar"/>
+    <x v="1"/>
+    <s v="Botón Exportar / Documento Excel se filtra el campo acciones"/>
+    <s v="Descarga e Imprime documentos CSV "/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-106"/>
+    <d v="2023-06-23T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Buscar "/>
+    <x v="2"/>
+    <m/>
+    <s v="Mostrar información que contiene la palabra introducida en la caja de búsqueda"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Filas por Paginación "/>
+    <x v="3"/>
+    <m/>
+    <s v="Se realiza muestran correctamente los número de registros consultados"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Número de Páginas"/>
+    <x v="3"/>
+    <m/>
+    <s v="Navegación correcta"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Editar "/>
+    <x v="1"/>
+    <s v="Ajustar color en el botón eliminar_x000a__x000a_Agregar signos de exclamación en el mensaje de confirmación._x000a__x000a_¡El registro se modifico correctamente!_x000a__x000a_¡El Registro se ha modificado!"/>
+    <s v="Editar"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-128"/>
+    <d v="2023-06-30T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Catálogos "/>
+    <s v="Tipo de Dependencias "/>
+    <m/>
+    <s v="irisc"/>
+    <s v="Borrar "/>
+    <x v="1"/>
+    <s v="Ajustar color en el botón acciones _x000a_Agregar signo de interrogación en la pregunta ¿Deseas eliminar este elemento? _x000a_Redacción en el mensaje de confirmación _x000a_¡El registro se elimino!_x000a_¡Registro eliminado!"/>
+    <s v="Borrar"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://paua-sfytgenl.atlassian.net/browse/KPAUA-129"/>
+    <d v="2023-06-30T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -11237,7 +11531,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -11247,9 +11541,9 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -11265,7 +11559,16 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11346,7 +11649,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11364,23 +11667,23 @@
         <item m="1" x="4"/>
         <item m="1" x="2"/>
         <item m="1" x="3"/>
-        <item m="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="12">
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
         <item m="1" x="3"/>
         <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item m="1" x="7"/>
         <item m="1" x="9"/>
-        <item m="1" x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
+        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11390,7 +11693,10 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="4"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11398,7 +11704,13 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="1">
+  <colItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11551,7 +11863,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -11567,16 +11879,16 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item h="1" x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="3"/>
+        <item m="1" x="7"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
         <item m="1" x="4"/>
-        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="1"/>
         <item m="1" x="2"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11586,7 +11898,10 @@
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
+    <i>
+      <x v="9"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11889,11 +12204,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N359"/>
+  <dimension ref="A1:N357"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11915,94 +12230,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12053,17 +12368,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="17"/>
       <c r="M7" s="18"/>
@@ -12074,17 +12389,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="1"/>
@@ -12094,17 +12409,17 @@
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="1"/>
@@ -12114,19 +12429,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1"/>
@@ -12136,19 +12451,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
@@ -12158,31 +12473,31 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="N12" s="1">
         <v>45099</v>
@@ -12193,22 +12508,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -12217,22 +12532,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="1"/>
@@ -12242,22 +12557,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="1"/>
@@ -12267,34 +12582,34 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="1">
         <v>45100</v>
@@ -12305,22 +12620,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="1"/>
@@ -12330,22 +12645,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1"/>
@@ -12355,22 +12670,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
@@ -12381,35 +12696,35 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N20" s="1">
         <v>45100</v>
@@ -12420,35 +12735,35 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N21" s="1">
         <v>45100</v>
@@ -12459,34 +12774,34 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="N22" s="1">
         <v>45100</v>
@@ -12497,34 +12812,34 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="N23" s="1">
         <v>45100</v>
@@ -12535,19 +12850,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24" s="7"/>
     </row>
@@ -12556,19 +12871,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="7"/>
       <c r="N25" s="1"/>
@@ -12578,34 +12893,34 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N26" s="1">
         <v>45100</v>
@@ -12616,22 +12931,22 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -12640,22 +12955,22 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="1"/>
@@ -12665,22 +12980,22 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="1"/>
@@ -12690,34 +13005,34 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="N30" s="1">
         <v>45100</v>
@@ -12728,34 +13043,34 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31" s="1">
         <v>45100</v>
@@ -12766,31 +13081,31 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K32" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="N32" s="1">
         <v>45106</v>
@@ -12801,25 +13116,25 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N33" s="1"/>
     </row>
@@ -12828,22 +13143,22 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N34" s="1"/>
     </row>
@@ -12852,22 +13167,22 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N35" s="1"/>
     </row>
@@ -12876,31 +13191,31 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="1">
         <v>45100</v>
@@ -12911,25 +13226,25 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N37" s="1"/>
     </row>
@@ -12938,25 +13253,25 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N38" s="1"/>
     </row>
@@ -12965,25 +13280,25 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N39" s="1"/>
     </row>
@@ -12992,34 +13307,34 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40" s="1">
         <v>45106</v>
@@ -13030,34 +13345,34 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N41" s="1">
         <v>45106</v>
@@ -13068,34 +13383,34 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N42" s="1">
         <v>45106</v>
@@ -13106,23 +13421,23 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43"/>
       <c r="I43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N43" s="1"/>
     </row>
@@ -13131,23 +13446,23 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
       </c>
       <c r="H44"/>
       <c r="I44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N44" s="1"/>
     </row>
@@ -13156,23 +13471,23 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45"/>
       <c r="I45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N45" s="1"/>
     </row>
@@ -13181,34 +13496,34 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N46" s="1">
         <v>45100</v>
@@ -13219,25 +13534,25 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N47" s="1"/>
     </row>
@@ -13246,20 +13561,20 @@
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48"/>
       <c r="I48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N48" s="1"/>
     </row>
@@ -13268,20 +13583,20 @@
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49"/>
       <c r="I49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
@@ -13289,34 +13604,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="N50" s="1">
         <v>45106</v>
@@ -13327,34 +13642,34 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N51" s="1">
         <v>45106</v>
@@ -13365,25 +13680,25 @@
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -13391,20 +13706,20 @@
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H53"/>
       <c r="I53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -13412,23 +13727,23 @@
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54"/>
       <c r="I54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -13436,22 +13751,22 @@
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N55" s="1"/>
     </row>
@@ -13460,34 +13775,34 @@
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N56" s="1">
         <v>45100</v>
@@ -13498,19 +13813,19 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N57" s="1"/>
     </row>
@@ -13519,22 +13834,22 @@
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N58" s="1"/>
     </row>
@@ -13543,22 +13858,22 @@
         <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N59" s="1"/>
     </row>
@@ -13567,34 +13882,34 @@
         <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N60" s="1">
         <v>45106</v>
@@ -13605,34 +13920,34 @@
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="I61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N61" s="1">
         <v>45106</v>
@@ -13640,34 +13955,34 @@
     </row>
     <row r="62" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K62" t="s">
-        <v>35</v>
-      </c>
-      <c r="L62" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="N62" s="1">
         <v>45106</v>
@@ -13675,88 +13990,88 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63"/>
       <c r="I63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H64"/>
       <c r="I64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="2:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N66" s="1">
         <v>45100</v>
@@ -13764,88 +14079,88 @@
     </row>
     <row r="67" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="2:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N70" s="1">
         <v>45107</v>
@@ -13853,66 +14168,66 @@
     </row>
     <row r="71" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M71" t="s">
+        <v>120</v>
+      </c>
+      <c r="N71" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="198" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K72" t="s">
+        <v>34</v>
+      </c>
+      <c r="L72" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" t="s">
         <v>119</v>
-      </c>
-      <c r="K72" t="s">
-        <v>35</v>
-      </c>
-      <c r="L72" t="s">
-        <v>43</v>
-      </c>
-      <c r="M72" t="s">
-        <v>120</v>
       </c>
       <c r="N72" s="1">
         <v>45107</v>
@@ -13920,88 +14235,88 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H73"/>
       <c r="I73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H74"/>
       <c r="I74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="2:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N76" s="1">
         <v>45100</v>
@@ -14009,97 +14324,97 @@
     </row>
     <row r="77" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="2:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N80" s="1">
         <v>45107</v>
@@ -14107,34 +14422,34 @@
     </row>
     <row r="81" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N81" s="1">
         <v>45107</v>
@@ -14145,27 +14460,27 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H83" s="37"/>
+      <c r="H83" s="20"/>
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H84" s="37"/>
+      <c r="H84" s="20"/>
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H85" s="37"/>
+      <c r="H85" s="20"/>
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="37"/>
+      <c r="H86" s="20"/>
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H87" s="37"/>
+      <c r="H87" s="20"/>
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H88" s="37"/>
+      <c r="H88" s="20"/>
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
@@ -14980,30 +15295,20 @@
     <row r="352" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N352" s="1"/>
     </row>
-    <row r="353" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N353" s="1"/>
     </row>
-    <row r="354" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N354" s="1"/>
     </row>
-    <row r="355" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N355" s="1"/>
     </row>
-    <row r="356" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N356" s="1"/>
     </row>
-    <row r="357" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N357" s="1"/>
-    </row>
-    <row r="358" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E358" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="359" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E359" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15024,26 +15329,27 @@
     <hyperlink ref="M62" r:id="rId6"/>
     <hyperlink ref="M80" r:id="rId7"/>
     <hyperlink ref="M81" r:id="rId8"/>
+    <hyperlink ref="M20" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId12" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId13">
+        <control shapeId="3090" r:id="rId13" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1619250</xdr:colOff>
+                <xdr:colOff>1600200</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -15052,23 +15358,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId12" name="Control 18"/>
+        <control shapeId="3090" r:id="rId13" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId14" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId13">
+        <control shapeId="3088" r:id="rId15" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1619250</xdr:colOff>
+                <xdr:colOff>1600200</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -15077,12 +15383,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId14" name="Control 16"/>
+        <control shapeId="3088" r:id="rId15" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -15125,9 +15431,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B49"/>
+  <dimension ref="A3:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -15136,8 +15442,7 @@
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
@@ -15147,53 +15452,113 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="B7" s="12">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="12">
         <v>20</v>
       </c>
-      <c r="B25" s="12"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B49" s="13"/>
+      <c r="C49" s="13">
+        <v>28</v>
+      </c>
+      <c r="D49" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13">
+        <v>28</v>
+      </c>
+      <c r="D50" s="13">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15219,7 +15584,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -15233,75 +15598,75 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PAUA\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\PAUA\ENTREGABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="121">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -355,10 +355,6 @@
     <t>Borrar</t>
   </si>
   <si>
-    <t>KPAUA-93 Ajustar diseño de botones   Al agregar un elemento y quieres agregar otro elemento 
-se queda guardada la información del registro anterior previamente agregado.</t>
-  </si>
-  <si>
     <t>KPAUA-92 KPAUA-93</t>
   </si>
   <si>
@@ -368,30 +364,10 @@
     <t>Botón Exportar / Documento Excel se filtra el campo acciones</t>
   </si>
   <si>
-    <t>Se sugiere agregar signos de exclamación y cambiar modificar por editar
-¡Registro Editado!
-¡Registro editado Correctamente!</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-100</t>
   </si>
   <si>
-    <t xml:space="preserve">Se sugiere agregar signo de interrogación en la pregunta / ¿Deseas eliminar el registro? Se sugiere agregar signos de exclamación 
-¡ El registro se elimino!
-ó 
-¡Registro eliminado correctamente!  </t>
-  </si>
-  <si>
-    <t>Botón Borrar / Ortografía Redacción mensaje de confirmación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dejar espacios entre cada palabra, Nombre Corto, Descripción  y Control Interno </t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortografía Mensaje de alerta en ingles </t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-102        https://paua-sfytgenl.atlassian.net/browse/KPAUA-103</t>
@@ -400,21 +376,7 @@
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-106</t>
   </si>
   <si>
-    <t>Color en los iconos de acciones, Se sugiere agregar signos de exclamación y cambiar modificar por editar
-¡Registro Editado!
-¡Registro editado Correctamente!</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-108</t>
-  </si>
-  <si>
-    <t>Departamentos / Agregar
-Descripcion / Descripción
-Tooltips en Ingles
-clear / borrar
-open / abrir
-Se queda guardado el registro previamente registrado al
-momento de querer registrar un nuevo registro</t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-115</t>
@@ -438,22 +400,10 @@
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-118</t>
   </si>
   <si>
-    <t xml:space="preserve">Acento / Mensaje de confirmación </t>
-  </si>
-  <si>
-    <t>Se sugiere agregar signos de exclamación y cambiar modificar por editar
-¡Registro Editado!
-¡Registro editado Correctamente!
-Ajustar color en los botone</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-119</t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortografía  </t>
   </si>
   <si>
     <t xml:space="preserve">Dependencias </t>
@@ -462,23 +412,7 @@
     <t xml:space="preserve">Tipo de Dependencias </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortografia, Se queda guardado el registro anterior si quieres hacer uno nuevo </t>
-  </si>
-  <si>
-    <t>Se sugiere agregar signos de exclamación y cambiar modificar por editar
-¡Registro Editado!
-¡Registro editado Correctamente!
-Ajustar color en los botones</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eliminar </t>
-  </si>
-  <si>
-    <t>Se sugiere agregar signo de interrogación en la pregunta /
- ¿Deseas eliminar el registro?  Se sugiere agregar signos de exclamación 
-¡ El registro se elimino!
-ó 
-¡Registro eliminado correctamente!</t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-122</t>
@@ -487,20 +421,7 @@
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-123</t>
   </si>
   <si>
-    <t>Acentos Direccion / Dirección 
-Telefono / Teléfono 
-Los campos Tipos de Dependencia y Pertenece a la Secretaria no contienen opciones para seleccionar 
-Tootips en ingles  close/ cerrar, no options / sin opciones, clear / borrar</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-124</t>
-  </si>
-  <si>
-    <t>Acento en la palabra 
-Desctipcion / Descripción 
-Mensaje de confirmación  ¡El registro se creo correctamente!
-¡El Registro se ha creado!
-Cuando se crea un nuevo registro aparece el registro anterior previamente registrado</t>
   </si>
   <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-125</t>
@@ -512,35 +433,49 @@
     <t>30-26-23</t>
   </si>
   <si>
-    <t>Botón eliminar agregar signo de interrogación
-al iniciar la pregunta
-Manda error al querer eliminar el registro
-Ajustar color en los botones</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-128</t>
   </si>
   <si>
-    <t>Ajustar color en el botón eliminar
-Agregar signos de exclamación en el mensaje de confirmación.
-¡El registro se modifico correctamente!
-¡El Registro se ha modificado!</t>
-  </si>
-  <si>
     <t>https://paua-sfytgenl.atlassian.net/browse/KPAUA-129</t>
-  </si>
-  <si>
-    <t>Ajustar color en el botón acciones 
-Agregar signo de interrogación en la pregunta ¿Deseas eliminar este elemento? 
-Redacción en el mensaje de confirmación 
-¡El registro se elimino!
-¡Registro eliminado!</t>
   </si>
   <si>
     <t>irisc</t>
   </si>
   <si>
     <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Ingresar a  la plataforma</t>
+  </si>
+  <si>
+    <t>Ingresa al menú correctamente</t>
+  </si>
+  <si>
+    <t>Agrega registro correctamente</t>
+  </si>
+  <si>
+    <t>Filtra por columnas correctamente</t>
+  </si>
+  <si>
+    <t>Busca por columnas, operacion y valor correctamente</t>
+  </si>
+  <si>
+    <t>Ajusta el tamaño de la pantalla</t>
+  </si>
+  <si>
+    <t>Muestra la información que se ingresa</t>
+  </si>
+  <si>
+    <t>Muestran correctamente los número de registros consultados</t>
+  </si>
+  <si>
+    <t>Muestra los números de registros</t>
+  </si>
+  <si>
+    <t>Elimina registro correctamente</t>
+  </si>
+  <si>
+    <t>Edita registro correctamente</t>
   </si>
 </sst>
 </file>
@@ -866,7 +801,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,9 +842,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -969,6 +901,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1120,7 +1058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1174,7 +1112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1256,7 +1194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1345,7 +1283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1409,7 +1347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1480,7 +1418,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1551,7 +1489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1619,7 +1557,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="1"/>
@@ -1810,7 +1748,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1866,7 +1804,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1922,7 +1860,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1970,7 +1908,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="1"/>
@@ -2090,7 +2028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2127,7 +2065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2217,7 +2155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2493,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2563,7 +2501,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2605,7 +2543,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2635,7 +2573,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2725,7 +2663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3524,7 +3462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3594,7 +3532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3636,7 +3574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3666,7 +3604,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5538,13 +5476,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1599757</xdr:colOff>
+          <xdr:colOff>1580707</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>187842</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>18164</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1771207</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>177431</xdr:rowOff>
         </xdr:to>
@@ -5585,13 +5523,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1599757</xdr:colOff>
+          <xdr:colOff>1580707</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>187842</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>18164</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1771207</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>177431</xdr:rowOff>
         </xdr:to>
@@ -12206,9 +12144,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N357"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12230,94 +12168,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12372,7 +12310,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>38</v>
@@ -12393,7 +12331,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>38</v>
@@ -12413,10 +12351,16 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>65</v>
@@ -12435,10 +12379,16 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>67</v>
@@ -12457,18 +12407,24 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -12479,16 +12435,16 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>69</v>
@@ -12497,7 +12453,7 @@
         <v>34</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1">
         <v>45099</v>
@@ -12514,13 +12470,16 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>70</v>
@@ -12538,13 +12497,16 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>71</v>
@@ -12563,13 +12525,16 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>72</v>
@@ -12588,7 +12553,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>55</v>
@@ -12596,8 +12561,8 @@
       <c r="G16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>83</v>
+      <c r="H16" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>73</v>
@@ -12609,13 +12574,13 @@
         <v>42</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N16" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -12626,7 +12591,7 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>43</v>
@@ -12634,7 +12599,10 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M17" s="7"/>
@@ -12651,7 +12619,7 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>74</v>
@@ -12659,8 +12627,11 @@
       <c r="G18" t="s">
         <v>24</v>
       </c>
+      <c r="H18" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1"/>
@@ -12676,13 +12647,16 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>77</v>
@@ -12691,7 +12665,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -12702,16 +12676,16 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>78</v>
@@ -12724,13 +12698,13 @@
         <v>42</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N20" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -12741,16 +12715,16 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>79</v>
@@ -12763,13 +12737,13 @@
         <v>42</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N21" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -12780,16 +12754,16 @@
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>69</v>
@@ -12801,13 +12775,13 @@
         <v>42</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N22" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -12818,16 +12792,16 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>70</v>
@@ -12839,7 +12813,7 @@
         <v>42</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N23" s="1">
         <v>45100</v>
@@ -12856,10 +12830,16 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>71</v>
@@ -12877,10 +12857,16 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>72</v>
@@ -12899,7 +12885,7 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>55</v>
@@ -12907,8 +12893,8 @@
       <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>83</v>
+      <c r="H26" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>73</v>
@@ -12920,13 +12906,13 @@
         <v>42</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N26" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -12937,13 +12923,16 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>75</v>
@@ -12961,13 +12950,16 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>76</v>
@@ -12986,13 +12978,16 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>77</v>
@@ -13000,7 +12995,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -13011,16 +13006,16 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>78</v>
@@ -13032,13 +13027,13 @@
         <v>42</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N30" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -13049,16 +13044,16 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>79</v>
@@ -13070,13 +13065,13 @@
         <v>42</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N31" s="1">
         <v>45100</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -13087,16 +13082,19 @@
         <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="K32" t="s">
         <v>34</v>
@@ -13105,7 +13103,7 @@
         <v>42</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N32" s="1">
         <v>45106</v>
@@ -13122,10 +13120,16 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>70</v>
@@ -13149,13 +13153,16 @@
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>71</v>
@@ -13173,20 +13180,23 @@
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -13197,7 +13207,7 @@
         <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>55</v>
@@ -13205,8 +13215,8 @@
       <c r="G36" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>83</v>
+      <c r="H36" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="K36" t="s">
         <v>34</v>
@@ -13215,7 +13225,7 @@
         <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N36" s="1">
         <v>45100</v>
@@ -13232,7 +13242,7 @@
         <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>43</v>
@@ -13241,7 +13251,7 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>75</v>
@@ -13259,7 +13269,7 @@
         <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>56</v>
@@ -13268,7 +13278,7 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>76</v>
@@ -13286,7 +13296,7 @@
         <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>57</v>
@@ -13295,14 +13305,14 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -13313,16 +13323,16 @@
         <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>78</v>
@@ -13334,13 +13344,13 @@
         <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N40" s="1">
         <v>45106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
@@ -13351,16 +13361,16 @@
         <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>79</v>
@@ -13372,7 +13382,7 @@
         <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="N41" s="1">
         <v>45106</v>
@@ -13389,16 +13399,16 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s">
-        <v>103</v>
+        <v>24</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>69</v>
@@ -13410,7 +13420,7 @@
         <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="N42" s="1">
         <v>45106</v>
@@ -13427,15 +13437,17 @@
         <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43"/>
+        <v>24</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I43" s="3" t="s">
         <v>70</v>
       </c>
@@ -13452,15 +13464,17 @@
         <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44"/>
+        <v>24</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="I44" s="3" t="s">
         <v>71</v>
       </c>
@@ -13477,15 +13491,17 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45"/>
+        <v>24</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="I45" s="3" t="s">
         <v>72</v>
       </c>
@@ -13502,7 +13518,7 @@
         <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>55</v>
@@ -13510,8 +13526,8 @@
       <c r="G46" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>83</v>
+      <c r="H46" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>73</v>
@@ -13523,7 +13539,7 @@
         <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N46" s="1">
         <v>45100</v>
@@ -13540,7 +13556,7 @@
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>43</v>
@@ -13549,7 +13565,7 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>75</v>
@@ -13567,12 +13583,17 @@
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H48"/>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>90</v>
+      </c>
       <c r="I48" s="3" t="s">
         <v>76</v>
       </c>
@@ -13589,17 +13610,22 @@
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H49"/>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>91</v>
+      </c>
       <c r="I49" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
@@ -13610,16 +13636,16 @@
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>78</v>
@@ -13631,7 +13657,7 @@
         <v>42</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N50" s="1">
         <v>45106</v>
@@ -13648,16 +13674,16 @@
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s">
-        <v>107</v>
+        <v>24</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>79</v>
@@ -13669,13 +13695,13 @@
         <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N51" s="1">
         <v>45106</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -13686,16 +13712,16 @@
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>69</v>
@@ -13712,12 +13738,17 @@
         <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H53"/>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I53" s="3" t="s">
         <v>70</v>
       </c>
@@ -13733,15 +13764,17 @@
         <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54"/>
+        <v>24</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="I54" s="3" t="s">
         <v>71</v>
       </c>
@@ -13757,13 +13790,16 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>72</v>
@@ -13781,7 +13817,7 @@
         <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>55</v>
@@ -13789,8 +13825,8 @@
       <c r="G56" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="16" t="s">
-        <v>83</v>
+      <c r="H56" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>73</v>
@@ -13802,7 +13838,7 @@
         <v>42</v>
       </c>
       <c r="M56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N56" s="1">
         <v>45100</v>
@@ -13819,10 +13855,16 @@
         <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
       </c>
       <c r="I57" s="19" t="s">
         <v>75</v>
@@ -13840,13 +13882,16 @@
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>90</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>76</v>
@@ -13864,20 +13909,23 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>91</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -13888,16 +13936,16 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>78</v>
@@ -13909,13 +13957,13 @@
         <v>42</v>
       </c>
       <c r="M60" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N60" s="1">
         <v>45106</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -13926,16 +13974,16 @@
         <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>79</v>
@@ -13947,30 +13995,30 @@
         <v>42</v>
       </c>
       <c r="M61" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="N61" s="1">
         <v>45106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
         <v>108</v>
-      </c>
-      <c r="E62" t="s">
-        <v>127</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>69</v>
@@ -13982,7 +14030,7 @@
         <v>42</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N62" s="1">
         <v>45106</v>
@@ -13993,15 +14041,20 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" t="s">
         <v>108</v>
-      </c>
-      <c r="E63" t="s">
-        <v>127</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H63"/>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I63" s="3" t="s">
         <v>70</v>
       </c>
@@ -14011,15 +14064,20 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" t="s">
         <v>108</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H64"/>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="I64" s="3" t="s">
         <v>71</v>
       </c>
@@ -14029,13 +14087,19 @@
         <v>48</v>
       </c>
       <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
         <v>108</v>
-      </c>
-      <c r="E65" t="s">
-        <v>127</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>72</v>
@@ -14047,10 +14111,10 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" t="s">
         <v>108</v>
-      </c>
-      <c r="E66" t="s">
-        <v>127</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>55</v>
@@ -14058,8 +14122,8 @@
       <c r="G66" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="16" t="s">
-        <v>83</v>
+      <c r="H66" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>73</v>
@@ -14071,7 +14135,7 @@
         <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N66" s="1">
         <v>45100</v>
@@ -14082,13 +14146,19 @@
         <v>48</v>
       </c>
       <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
         <v>108</v>
-      </c>
-      <c r="E67" t="s">
-        <v>127</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>89</v>
       </c>
       <c r="I67" s="19" t="s">
         <v>75</v>
@@ -14100,13 +14170,19 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" t="s">
         <v>108</v>
-      </c>
-      <c r="E68" t="s">
-        <v>127</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>90</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>76</v>
@@ -14118,37 +14194,43 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
         <v>108</v>
-      </c>
-      <c r="E69" t="s">
-        <v>127</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>91</v>
+      </c>
       <c r="I69" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
         <v>108</v>
-      </c>
-      <c r="E70" t="s">
-        <v>127</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>78</v>
@@ -14160,30 +14242,30 @@
         <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N70" s="1">
         <v>45107</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
         <v>108</v>
-      </c>
-      <c r="E71" t="s">
-        <v>127</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>79</v>
@@ -14195,30 +14277,30 @@
         <v>42</v>
       </c>
       <c r="M71" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" ht="198" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K72" t="s">
         <v>34</v>
@@ -14227,7 +14309,7 @@
         <v>42</v>
       </c>
       <c r="M72" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="N72" s="1">
         <v>45107</v>
@@ -14238,15 +14320,20 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H73"/>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I73" s="3" t="s">
         <v>70</v>
       </c>
@@ -14256,15 +14343,20 @@
         <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H74"/>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="I74" s="3" t="s">
         <v>71</v>
       </c>
@@ -14274,13 +14366,19 @@
         <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>72</v>
@@ -14292,10 +14390,10 @@
         <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>55</v>
@@ -14303,8 +14401,8 @@
       <c r="G76" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="16" t="s">
-        <v>83</v>
+      <c r="H76" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>73</v>
@@ -14316,7 +14414,7 @@
         <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N76" s="1">
         <v>45100</v>
@@ -14327,16 +14425,19 @@
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
       </c>
       <c r="I77" s="19" t="s">
         <v>75</v>
@@ -14348,16 +14449,19 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E78" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>90</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>76</v>
@@ -14369,40 +14473,43 @@
         <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>91</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>78</v>
@@ -14414,7 +14521,7 @@
         <v>42</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="N80" s="1">
         <v>45107</v>
@@ -14425,19 +14532,19 @@
         <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>79</v>
@@ -14449,7 +14556,7 @@
         <v>42</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="N81" s="1">
         <v>45107</v>
@@ -15343,15 +15450,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1600200</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1581150</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15368,15 +15475,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1600200</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>1581150</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15459,26 +15566,26 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>9</v>
       </c>
     </row>
@@ -15499,10 +15606,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>20</v>
       </c>
     </row>
@@ -15527,7 +15634,7 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>

--- a/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
+++ b/PAUA/ENTREGABLES/Matiz de Pruebas Catalogos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\PAUA\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PAUA\ENTREGABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="PAUA" sheetId="1" r:id="rId1"/>
@@ -851,6 +851,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,12 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1058,7 +1058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1112,7 +1112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1194,7 +1194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1283,7 +1283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1347,7 +1347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1418,7 +1418,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1489,7 +1489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1557,7 +1557,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="1"/>
@@ -1748,7 +1748,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1804,7 +1804,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1860,7 +1860,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -1908,7 +1908,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="1"/>
@@ -2028,7 +2028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2065,7 +2065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2155,7 +2155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2431,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2501,7 +2501,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2543,7 +2543,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2573,7 +2573,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2663,7 +2663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3462,7 +3462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3532,7 +3532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3574,7 +3574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3604,7 +3604,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5476,15 +5476,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1580707</xdr:colOff>
+          <xdr:colOff>1581150</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>187842</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1771207</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>177431</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5523,15 +5523,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1580707</xdr:colOff>
+          <xdr:colOff>1581150</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>187842</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1771207</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>177431</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12146,7 +12146,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12168,94 +12168,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12561,7 +12561,7 @@
       <c r="G16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -12602,7 +12602,7 @@
       <c r="H17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="26" t="s">
         <v>75</v>
       </c>
       <c r="M17" s="7"/>
@@ -12893,7 +12893,7 @@
       <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -13215,7 +13215,7 @@
       <c r="G36" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="25" t="s">
         <v>82</v>
       </c>
       <c r="K36" t="s">
@@ -13526,7 +13526,7 @@
       <c r="G46" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -13825,7 +13825,7 @@
       <c r="G56" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="H56" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -14122,7 +14122,7 @@
       <c r="G66" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="42" t="s">
+      <c r="H66" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -14401,7 +14401,7 @@
       <c r="G76" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="42" t="s">
+      <c r="H76" s="25" t="s">
         <v>82</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -15445,7 +15445,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId13" name="Control 18">
+        <control shapeId="3088" r:id="rId13" name="Control 16">
           <controlPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
@@ -15456,21 +15456,21 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId13" name="Control 18"/>
+        <control shapeId="3088" r:id="rId13" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId15" name="Control 16">
+        <control shapeId="3090" r:id="rId15" name="Control 18">
           <controlPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
@@ -15481,16 +15481,16 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId15" name="Control 16"/>
+        <control shapeId="3090" r:id="rId15" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
